--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_24_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_24_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-907305.8231183159</v>
+        <v>-908910.2410446475</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>254.9455259660928</v>
       </c>
       <c r="C11" t="n">
-        <v>237.4845760736198</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443237</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.7244505358284</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>182.9796145536087</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212896</v>
+        <v>17.65528330212884</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014333</v>
+        <v>83.09443458014321</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078953</v>
+        <v>123.3341395078952</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727472</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.4526530200252</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.9427849810812</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.5095020529539</v>
+        <v>258.4496229586658</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>38.74486795247951</v>
       </c>
       <c r="C12" t="n">
-        <v>123.7588470384896</v>
+        <v>44.92018329092791</v>
       </c>
       <c r="D12" t="n">
-        <v>19.65674986725104</v>
+        <v>19.65674986725092</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>29.85676475801311</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599616</v>
+        <v>17.28089669599605</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577307</v>
+        <v>8.062435227577193</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16.16737725307223</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T12" t="n">
-        <v>66.35951750204917</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U12" t="n">
-        <v>98.05485807843937</v>
+        <v>176.8935218260019</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>123.9066674635319</v>
+        <v>123.9066674635318</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608976</v>
+        <v>77.98466950608965</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.89438007991664</v>
+        <v>77.89438007991653</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454958</v>
+        <v>52.04366448454947</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124012</v>
+        <v>39.45850540124</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082464</v>
+        <v>20.82715732082453</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918145</v>
+        <v>18.64564694918134</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554353</v>
+        <v>17.63273232554342</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219386</v>
+        <v>38.95117859219375</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403474</v>
+        <v>23.31201683403463</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015224</v>
+        <v>74.41831073015213</v>
       </c>
       <c r="T13" t="n">
-        <v>94.81001934569129</v>
+        <v>94.81001934569117</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371644</v>
+        <v>158.4624508371643</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264403</v>
+        <v>124.3493276264402</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392033</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164944</v>
+        <v>97.92133969164932</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470707</v>
+        <v>90.79633765470696</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>253.0092568047401</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8947259232953</v>
+        <v>226.8947259232951</v>
       </c>
       <c r="E14" t="n">
-        <v>49.25745669165504</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443238</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274268</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212903</v>
+        <v>17.65528330212884</v>
       </c>
       <c r="T14" t="n">
-        <v>83.0944345801434</v>
+        <v>83.09443458014321</v>
       </c>
       <c r="U14" t="n">
-        <v>123.3341395078953</v>
+        <v>123.3341395078952</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727473</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200254</v>
+        <v>221.4526530200252</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>258.4496229586658</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>117.5835317000422</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092809</v>
+        <v>44.92018329092791</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725111</v>
+        <v>19.65674986725092</v>
       </c>
       <c r="E15" t="n">
-        <v>29.8567647580133</v>
+        <v>29.85676475801311</v>
       </c>
       <c r="F15" t="n">
-        <v>17.28089669599623</v>
+        <v>17.28089669599605</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577378</v>
+        <v>8.062435227577193</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204924</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843944</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V15" t="n">
-        <v>183.8509351995984</v>
+        <v>105.0122714520374</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>123.9066674635318</v>
       </c>
       <c r="X15" t="n">
-        <v>77.98466950608983</v>
+        <v>77.98466950608965</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.89438007991671</v>
+        <v>77.89438007991653</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454965</v>
+        <v>52.04366448454947</v>
       </c>
       <c r="C16" t="n">
-        <v>39.45850540124019</v>
+        <v>39.45850540124</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082471</v>
+        <v>20.82715732082453</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918153</v>
+        <v>18.64564694918134</v>
       </c>
       <c r="F16" t="n">
-        <v>17.6327323255436</v>
+        <v>17.63273232554342</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219393</v>
+        <v>38.95117859219375</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403481</v>
+        <v>23.31201683403463</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015231</v>
+        <v>74.41831073015213</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569136</v>
+        <v>94.81001934569117</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371645</v>
+        <v>158.4624508371643</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264404</v>
+        <v>124.3493276264402</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392034</v>
+        <v>158.7346826392032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164951</v>
+        <v>97.92133969164932</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470714</v>
+        <v>90.79633765470696</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D17" t="n">
-        <v>111.7545725636091</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E17" t="n">
-        <v>139.0019010151879</v>
+        <v>139.0019010151878</v>
       </c>
       <c r="F17" t="n">
         <v>163.9475766846376</v>
       </c>
       <c r="G17" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H17" t="n">
-        <v>67.97353966774058</v>
+        <v>67.97353966774048</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.193986148209108</v>
+        <v>8.193986148209035</v>
       </c>
       <c r="V17" t="n">
-        <v>84.82378941306104</v>
+        <v>84.82378941306095</v>
       </c>
       <c r="W17" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X17" t="n">
-        <v>126.8026316213952</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y17" t="n">
-        <v>143.3094695989797</v>
+        <v>143.3094695989796</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>78.0869109240795</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>8.766514103845736</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>17.0294239181456</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,25 +2044,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>93.08189356270809</v>
       </c>
       <c r="T19" t="n">
-        <v>139.7920863791746</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>43.32229747747827</v>
+        <v>43.32229747747818</v>
       </c>
       <c r="V19" t="n">
-        <v>9.209174266754133</v>
+        <v>9.209174266754047</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951713</v>
+        <v>43.59452927951705</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C20" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D20" t="n">
-        <v>111.7545725636091</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E20" t="n">
-        <v>139.0019010151879</v>
+        <v>139.0019010151878</v>
       </c>
       <c r="F20" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G20" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H20" t="n">
-        <v>67.97353966774057</v>
+        <v>67.97353966774048</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148209108</v>
+        <v>8.193986148209023</v>
       </c>
       <c r="V20" t="n">
-        <v>84.82378941306104</v>
+        <v>84.82378941306095</v>
       </c>
       <c r="W20" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X20" t="n">
-        <v>126.8026316213952</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y20" t="n">
-        <v>143.3094695989797</v>
+        <v>143.3094695989796</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>97.81846504080859</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T21" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>34.29538586620781</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>39.84451469022923</v>
       </c>
     </row>
     <row r="22">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>139.7920863791745</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>43.32229747747827</v>
+        <v>183.114383856653</v>
       </c>
       <c r="V22" t="n">
-        <v>9.209174266754133</v>
+        <v>9.209174266754047</v>
       </c>
       <c r="W22" t="n">
-        <v>43.59452927951713</v>
+        <v>43.59452927951705</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.8053726064067</v>
+        <v>139.8053726064066</v>
       </c>
       <c r="C23" t="n">
-        <v>122.3444227139337</v>
+        <v>122.3444227139336</v>
       </c>
       <c r="D23" t="n">
-        <v>111.7545725636091</v>
+        <v>111.754572563609</v>
       </c>
       <c r="E23" t="n">
-        <v>139.0019010151879</v>
+        <v>139.0019010151878</v>
       </c>
       <c r="F23" t="n">
-        <v>163.9475766846376</v>
+        <v>163.9475766846375</v>
       </c>
       <c r="G23" t="n">
-        <v>169.5842971761422</v>
+        <v>169.5842971761421</v>
       </c>
       <c r="H23" t="n">
-        <v>67.97353966774058</v>
+        <v>67.97353966774048</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.193986148209108</v>
+        <v>8.193986148209035</v>
       </c>
       <c r="V23" t="n">
-        <v>84.82378941306104</v>
+        <v>84.82378941306095</v>
       </c>
       <c r="W23" t="n">
         <v>106.3124996603391</v>
       </c>
       <c r="X23" t="n">
-        <v>126.8026316213952</v>
+        <v>126.8026316213951</v>
       </c>
       <c r="Y23" t="n">
-        <v>143.3094695989797</v>
+        <v>143.3094695989796</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2448,16 +2448,16 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4420549149187</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>37.9969893502801</v>
       </c>
       <c r="W24" t="n">
-        <v>8.766514103845736</v>
+        <v>8.766514103845651</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.7920863791746</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.32229747747827</v>
+        <v>43.32229747747818</v>
       </c>
       <c r="V25" t="n">
-        <v>9.209174266754133</v>
+        <v>149.0012606459289</v>
       </c>
       <c r="W25" t="n">
-        <v>43.59452927951713</v>
+        <v>43.59452927951705</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F26" t="n">
-        <v>291.7358923820252</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735299</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H26" t="n">
-        <v>195.7618553651282</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983045</v>
+        <v>30.30344563983055</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784482</v>
+        <v>95.74259691784492</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455968</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104488</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577268</v>
+        <v>234.1008153577269</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.39303029018112</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>57.56834562862952</v>
+        <v>57.56834562862961</v>
       </c>
       <c r="D27" t="n">
-        <v>32.30491220495253</v>
+        <v>32.30491220495263</v>
       </c>
       <c r="E27" t="n">
-        <v>110.0021208259474</v>
+        <v>42.50492709571482</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369765</v>
+        <v>29.92905903369775</v>
       </c>
       <c r="G27" t="n">
-        <v>20.7105975652788</v>
+        <v>20.7105975652789</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>28.81553959077372</v>
+        <v>28.81553959077382</v>
       </c>
       <c r="T27" t="n">
-        <v>79.00767983975066</v>
+        <v>79.00767983975076</v>
       </c>
       <c r="U27" t="n">
-        <v>110.7030204161409</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V27" t="n">
-        <v>117.660433789739</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>136.5548298012335</v>
       </c>
       <c r="X27" t="n">
-        <v>90.63283184379125</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>158.0397361478501</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225107</v>
+        <v>64.69182682225117</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894161</v>
+        <v>52.10666773894171</v>
       </c>
       <c r="D28" t="n">
-        <v>33.47531965852613</v>
+        <v>33.47531965852623</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688295</v>
+        <v>31.29380928688305</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324502</v>
+        <v>30.28089466324512</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989536</v>
+        <v>51.59934092989545</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173624</v>
+        <v>35.96017917173634</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338317</v>
+        <v>2.674752405338417</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969363</v>
+        <v>5.881918465969463</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785374</v>
+        <v>87.06647306785383</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833928</v>
+        <v>107.4581816833929</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1106131748659</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641418</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769048</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X28" t="n">
-        <v>110.5695020293509</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924086</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037943</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125755</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F29" t="n">
-        <v>291.7358923820252</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735298</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H29" t="n">
-        <v>195.7618553651282</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983038</v>
+        <v>30.30344563983054</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784475</v>
+        <v>95.74259691784492</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455967</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104486</v>
+        <v>212.6121051104488</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577267</v>
+        <v>234.1008153577269</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963673</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.39303029018104</v>
+        <v>51.39303029018122</v>
       </c>
       <c r="C30" t="n">
-        <v>57.56834562862944</v>
+        <v>72.06848657298899</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>32.30491220495263</v>
       </c>
       <c r="E30" t="n">
-        <v>42.50492709571465</v>
+        <v>42.50492709571482</v>
       </c>
       <c r="F30" t="n">
-        <v>29.92905903369758</v>
+        <v>29.92905903369775</v>
       </c>
       <c r="G30" t="n">
-        <v>20.71059756527873</v>
+        <v>20.7105975652789</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S30" t="n">
-        <v>28.81553959077365</v>
+        <v>28.81553959077382</v>
       </c>
       <c r="T30" t="n">
-        <v>79.00767983975059</v>
+        <v>79.00767983975076</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8431737758271</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V30" t="n">
-        <v>117.660433789739</v>
+        <v>117.6604337897391</v>
       </c>
       <c r="W30" t="n">
-        <v>204.0520235314669</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>90.63283184379118</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.54254241761807</v>
+        <v>90.54254241761824</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.691826822251</v>
+        <v>64.69182682225117</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894154</v>
+        <v>52.10666773894171</v>
       </c>
       <c r="D31" t="n">
-        <v>33.47531965852606</v>
+        <v>33.47531965852623</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688288</v>
+        <v>31.29380928688305</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324495</v>
+        <v>30.28089466324512</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989528</v>
+        <v>51.59934092989545</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173616</v>
+        <v>35.96017917173634</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338246</v>
+        <v>2.674752405338417</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969292</v>
+        <v>5.881918465969463</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785366</v>
+        <v>87.06647306785383</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833927</v>
+        <v>107.4581816833929</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748658</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641417</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769047</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293509</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924085</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037944</v>
+        <v>267.5936883037945</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113213</v>
+        <v>250.1327384113214</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609967</v>
+        <v>239.5428882609968</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125756</v>
+        <v>266.7902167125757</v>
       </c>
       <c r="F32" t="n">
-        <v>291.7358923820252</v>
+        <v>291.7358923820253</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735299</v>
+        <v>297.37261287353</v>
       </c>
       <c r="H32" t="n">
-        <v>195.7618553651282</v>
+        <v>195.7618553651283</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30344563983043</v>
+        <v>30.30344563983054</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784481</v>
+        <v>95.74259691784492</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455967</v>
+        <v>135.9823018455969</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104487</v>
+        <v>212.6121051104488</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577268</v>
+        <v>234.1008153577269</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187828</v>
+        <v>254.5909473187829</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963674</v>
+        <v>271.0977852963675</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.3930302901811</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>57.5683456286295</v>
+        <v>57.56834562862961</v>
       </c>
       <c r="D33" t="n">
-        <v>99.80210593518557</v>
+        <v>32.30491220495263</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>42.50492709571482</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>29.92905903369775</v>
       </c>
       <c r="G33" t="n">
-        <v>20.71059756527879</v>
+        <v>20.7105975652789</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S33" t="n">
-        <v>28.81553959077371</v>
+        <v>28.81553959077382</v>
       </c>
       <c r="T33" t="n">
-        <v>79.00767983975065</v>
+        <v>79.00767983975076</v>
       </c>
       <c r="U33" t="n">
-        <v>110.7030204161408</v>
+        <v>110.703020416141</v>
       </c>
       <c r="V33" t="n">
-        <v>117.660433789739</v>
+        <v>132.1605747340985</v>
       </c>
       <c r="W33" t="n">
-        <v>136.5548298012334</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>90.63283184379124</v>
+        <v>90.63283184379135</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.54254241761812</v>
+        <v>90.54254241761824</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225106</v>
+        <v>64.69182682225117</v>
       </c>
       <c r="C34" t="n">
-        <v>52.1066677389416</v>
+        <v>52.10666773894171</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852612</v>
+        <v>33.47531965852623</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688293</v>
+        <v>31.29380928688305</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324501</v>
+        <v>30.28089466324512</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989534</v>
+        <v>51.59934092989545</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173622</v>
+        <v>35.96017917173634</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338303</v>
+        <v>2.674752405338417</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969349</v>
+        <v>5.881918465969463</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785372</v>
+        <v>87.06647306785383</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833928</v>
+        <v>107.4581816833929</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748659</v>
+        <v>171.110613174866</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641418</v>
+        <v>136.9974899641419</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769048</v>
+        <v>171.3828449769049</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293509</v>
+        <v>110.569502029351</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924086</v>
+        <v>103.4444999924087</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186578</v>
       </c>
       <c r="D35" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683332</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199118</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893617</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808664</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246448</v>
+        <v>90.94452067246471</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293303</v>
+        <v>31.16496715293326</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177852</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650633</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261193</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037039</v>
       </c>
     </row>
     <row r="36">
@@ -3348,13 +3348,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T36" t="n">
-        <v>172.2635867742806</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
         <v>225.8431737758271</v>
       </c>
       <c r="V36" t="n">
-        <v>12.84309909707531</v>
+        <v>12.84309909707554</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>236.1648336054803</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.71019281646673</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.77593622111992</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>62.48612903758551</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990729042</v>
+        <v>2.640846990729269</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220217</v>
+        <v>66.2932784822024</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147804</v>
+        <v>32.18015527147827</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424104</v>
+        <v>66.56551028424127</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336687194</v>
+        <v>5.752167336687421</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111305</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186575</v>
+        <v>145.3154037186577</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683329</v>
+        <v>134.7255535683331</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199117</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893614</v>
+        <v>186.9185576893616</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808663</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246439</v>
+        <v>90.94452067246462</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293295</v>
+        <v>31.16496715293317</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177851</v>
       </c>
       <c r="W38" t="n">
-        <v>129.283480665063</v>
+        <v>129.2834806650632</v>
       </c>
       <c r="X38" t="n">
-        <v>149.773612626119</v>
+        <v>149.7736126261192</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037035</v>
+        <v>166.2804506037038</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>117.7351293026353</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>186.7416005370909</v>
       </c>
       <c r="U39" t="n">
         <v>225.8431737758271</v>
@@ -3642,13 +3642,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>31.73749510856956</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>62.48612903758592</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.48612903758706</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.640846990728956</v>
+        <v>2.640846990729184</v>
       </c>
       <c r="U40" t="n">
-        <v>66.29327848220208</v>
+        <v>66.29327848220231</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147796</v>
+        <v>32.18015527147818</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424096</v>
+        <v>66.56551028424118</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336687108</v>
+        <v>5.752167336687336</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186578</v>
       </c>
       <c r="D41" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683332</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199118</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893617</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808664</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246448</v>
+        <v>90.94452067246471</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293302</v>
+        <v>31.16496715293326</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177852</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650633</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261193</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037039</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>93.47430482167194</v>
+        <v>181.9487346649514</v>
       </c>
       <c r="V42" t="n">
-        <v>12.84309909707531</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>23.97070196780712</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>38.51542706977952</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990729042</v>
+        <v>2.640846990729269</v>
       </c>
       <c r="U43" t="n">
-        <v>66.29327848220217</v>
+        <v>66.2932784822024</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147804</v>
+        <v>32.18015527147827</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424104</v>
+        <v>66.56551028424127</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336687194</v>
+        <v>68.23829637427289</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111306</v>
+        <v>162.7763536111308</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186576</v>
+        <v>145.3154037186578</v>
       </c>
       <c r="D44" t="n">
-        <v>134.725553568333</v>
+        <v>134.7255535683332</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199118</v>
+        <v>161.972882019912</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893615</v>
+        <v>186.9185576893617</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808661</v>
+        <v>192.5552781808664</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246448</v>
+        <v>90.94452067246471</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293303</v>
+        <v>31.16496715293326</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177849</v>
+        <v>107.7947704177852</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650631</v>
+        <v>129.2834806650633</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261191</v>
+        <v>149.7736126261193</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037036</v>
+        <v>166.2804506037039</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>110.6959550820168</v>
+        <v>5.88568572347735</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>31.73749510856965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>98.85042979403771</v>
       </c>
     </row>
     <row r="46">
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>38.51542706977952</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.97070196780708</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.640846990729042</v>
+        <v>2.640846990729269</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220217</v>
+        <v>128.7794075197879</v>
       </c>
       <c r="V46" t="n">
-        <v>32.18015527147804</v>
+        <v>32.18015527147827</v>
       </c>
       <c r="W46" t="n">
-        <v>66.56551028424104</v>
+        <v>66.56551028424127</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336687194</v>
+        <v>5.752167336687421</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>837.9178547702425</v>
+        <v>213.3550849720979</v>
       </c>
       <c r="C11" t="n">
-        <v>598.0344445948689</v>
+        <v>213.3550849720979</v>
       </c>
       <c r="D11" t="n">
-        <v>598.0344445948689</v>
+        <v>213.3550849720979</v>
       </c>
       <c r="E11" t="n">
-        <v>598.0344445948689</v>
+        <v>213.3550849720979</v>
       </c>
       <c r="F11" t="n">
-        <v>316.1276465702995</v>
+        <v>213.3550849720979</v>
       </c>
       <c r="G11" t="n">
-        <v>28.52719148360421</v>
+        <v>213.3550849720979</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006772</v>
+        <v>83.71911784006784</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634139</v>
+        <v>217.176026663414</v>
       </c>
       <c r="L11" t="n">
-        <v>419.642884983841</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965336</v>
+        <v>676.5957134965339</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893059</v>
+        <v>942.3201157893064</v>
       </c>
       <c r="O11" t="n">
         <v>1179.900872569998</v>
@@ -5075,16 +5075,16 @@
         <v>1200.012243483072</v>
       </c>
       <c r="V11" t="n">
-        <v>998.0284629045393</v>
+        <v>1200.012243483072</v>
       </c>
       <c r="W11" t="n">
-        <v>998.0284629045393</v>
+        <v>976.3226949779964</v>
       </c>
       <c r="X11" t="n">
-        <v>998.0284629045393</v>
+        <v>731.9360434819548</v>
       </c>
       <c r="Y11" t="n">
-        <v>837.9178547702425</v>
+        <v>470.8758182711812</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>358.2282109631143</v>
+        <v>149.5140903116499</v>
       </c>
       <c r="C12" t="n">
-        <v>233.2192745605996</v>
+        <v>104.1401677955611</v>
       </c>
       <c r="D12" t="n">
-        <v>213.3639716643864</v>
+        <v>84.28486489934801</v>
       </c>
       <c r="E12" t="n">
-        <v>54.12651665893095</v>
+        <v>54.12651665893073</v>
       </c>
       <c r="F12" t="n">
-        <v>36.67106545085402</v>
+        <v>36.67106545085391</v>
       </c>
       <c r="G12" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J12" t="n">
         <v>42.58127776197354</v>
@@ -5145,25 +5145,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S12" t="n">
-        <v>1210.282618467477</v>
+        <v>1081.203511702439</v>
       </c>
       <c r="T12" t="n">
-        <v>1143.252802808842</v>
+        <v>885.0945892787656</v>
       </c>
       <c r="U12" t="n">
-        <v>1044.207491618499</v>
+        <v>706.414264201996</v>
       </c>
       <c r="V12" t="n">
-        <v>809.0553833867564</v>
+        <v>471.2621559702533</v>
       </c>
       <c r="W12" t="n">
-        <v>683.8971334235929</v>
+        <v>346.1039060070899</v>
       </c>
       <c r="X12" t="n">
-        <v>605.1247399830982</v>
+        <v>267.3315125665953</v>
       </c>
       <c r="Y12" t="n">
-        <v>526.4435479831824</v>
+        <v>188.6503205666797</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.958744436148</v>
+        <v>188.9587444361473</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1016682732792</v>
+        <v>149.1016682732786</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259816</v>
+        <v>128.0641356259811</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086266</v>
+        <v>109.2301488086262</v>
       </c>
       <c r="F13" t="n">
-        <v>91.41930807575432</v>
+        <v>91.4193080757541</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515446</v>
+        <v>52.07468323515435</v>
       </c>
       <c r="H13" t="n">
-        <v>28.52719148360421</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I13" t="n">
-        <v>28.52719148360421</v>
+        <v>38.40086731664387</v>
       </c>
       <c r="J13" t="n">
-        <v>28.52719148360421</v>
+        <v>126.7810270579761</v>
       </c>
       <c r="K13" t="n">
-        <v>171.2603110574412</v>
+        <v>143.0037140913992</v>
       </c>
       <c r="L13" t="n">
-        <v>348.4359954271857</v>
+        <v>284.6754397557879</v>
       </c>
       <c r="M13" t="n">
-        <v>531.6241152433134</v>
+        <v>467.8635595719157</v>
       </c>
       <c r="N13" t="n">
-        <v>721.3220922428327</v>
+        <v>657.561536571435</v>
       </c>
       <c r="O13" t="n">
-        <v>885.8833603740437</v>
+        <v>822.1228047026461</v>
       </c>
       <c r="P13" t="n">
-        <v>962.1303294414836</v>
+        <v>962.1303294414819</v>
       </c>
       <c r="Q13" t="n">
-        <v>1042.397671093595</v>
+        <v>1042.397671093594</v>
       </c>
       <c r="R13" t="n">
-        <v>1049.09625252661</v>
+        <v>1049.096252526609</v>
       </c>
       <c r="S13" t="n">
-        <v>973.9262416880727</v>
+        <v>973.9262416880711</v>
       </c>
       <c r="T13" t="n">
-        <v>878.1585453792935</v>
+        <v>878.1585453792921</v>
       </c>
       <c r="U13" t="n">
-        <v>718.095463725592</v>
+        <v>718.0954637255908</v>
       </c>
       <c r="V13" t="n">
-        <v>592.4900822847433</v>
+        <v>592.4900822847421</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128208</v>
+        <v>432.1520190128198</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798416</v>
+        <v>333.2415748798406</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.5281025013496</v>
+        <v>241.5281025013488</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>774.3389143994639</v>
+        <v>257.7137833253165</v>
       </c>
       <c r="C14" t="n">
-        <v>774.3389143994639</v>
+        <v>257.7137833253165</v>
       </c>
       <c r="D14" t="n">
-        <v>545.1523225577514</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E14" t="n">
-        <v>495.3973157985039</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F14" t="n">
-        <v>213.4905177739344</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G14" t="n">
-        <v>213.4905177739344</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006829</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634144</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838416</v>
+        <v>419.642884983841</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965341</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893067</v>
+        <v>942.3201157893063</v>
       </c>
       <c r="O14" t="n">
         <v>1179.900872569998</v>
@@ -5297,22 +5297,22 @@
         <v>1348.169550998292</v>
       </c>
       <c r="Q14" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R14" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S14" t="n">
-        <v>1408.525954683112</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T14" t="n">
-        <v>1324.592182379937</v>
+        <v>1324.592182379936</v>
       </c>
       <c r="U14" t="n">
-        <v>1200.012243483073</v>
+        <v>1200.012243483072</v>
       </c>
       <c r="V14" t="n">
-        <v>998.02846290454</v>
+        <v>998.0284629045398</v>
       </c>
       <c r="W14" t="n">
         <v>774.3389143994639</v>
@@ -5321,7 +5321,7 @@
         <v>774.3389143994639</v>
       </c>
       <c r="Y14" t="n">
-        <v>774.3389143994639</v>
+        <v>513.2786891886904</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.5140903116508</v>
+        <v>149.5140903116499</v>
       </c>
       <c r="C15" t="n">
-        <v>104.1401677955619</v>
+        <v>104.1401677955611</v>
       </c>
       <c r="D15" t="n">
-        <v>84.28486489934861</v>
+        <v>84.28486489934801</v>
       </c>
       <c r="E15" t="n">
-        <v>54.12651665893112</v>
+        <v>54.12651665893073</v>
       </c>
       <c r="F15" t="n">
-        <v>36.67106545085412</v>
+        <v>36.67106545085391</v>
       </c>
       <c r="G15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J15" t="n">
-        <v>42.58127776197356</v>
+        <v>42.58127776197355</v>
       </c>
       <c r="K15" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L15" t="n">
-        <v>328.4668801148407</v>
+        <v>328.4668801148406</v>
       </c>
       <c r="M15" t="n">
         <v>562.204776565439</v>
@@ -5385,22 +5385,22 @@
         <v>1081.203511702439</v>
       </c>
       <c r="T15" t="n">
-        <v>1014.173696043804</v>
+        <v>885.0945892787656</v>
       </c>
       <c r="U15" t="n">
-        <v>915.1283848534608</v>
+        <v>656.9701713233848</v>
       </c>
       <c r="V15" t="n">
-        <v>729.4203695003312</v>
+        <v>550.8971698566803</v>
       </c>
       <c r="W15" t="n">
-        <v>475.1830127721295</v>
+        <v>425.7389198935169</v>
       </c>
       <c r="X15" t="n">
-        <v>396.4106193316347</v>
+        <v>346.9665264530223</v>
       </c>
       <c r="Y15" t="n">
-        <v>317.7294273317189</v>
+        <v>268.2853344531066</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361485</v>
+        <v>188.9587444361473</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732796</v>
+        <v>149.1016682732786</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259819</v>
+        <v>128.0641356259811</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086268</v>
+        <v>109.2301488086262</v>
       </c>
       <c r="F16" t="n">
-        <v>91.41930807575449</v>
+        <v>91.4193080757541</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515455</v>
+        <v>52.07468323515435</v>
       </c>
       <c r="H16" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I16" t="n">
-        <v>38.4008673166437</v>
+        <v>38.40086731664388</v>
       </c>
       <c r="J16" t="n">
-        <v>38.4008673166437</v>
+        <v>126.7810270579761</v>
       </c>
       <c r="K16" t="n">
-        <v>114.1983368190621</v>
+        <v>269.5141466318132</v>
       </c>
       <c r="L16" t="n">
-        <v>291.3740211888065</v>
+        <v>446.6898310015579</v>
       </c>
       <c r="M16" t="n">
-        <v>474.5621410049341</v>
+        <v>594.3739921123297</v>
       </c>
       <c r="N16" t="n">
-        <v>664.2601180044533</v>
+        <v>784.0719691118489</v>
       </c>
       <c r="O16" t="n">
-        <v>828.8213861356642</v>
+        <v>822.1228047026461</v>
       </c>
       <c r="P16" t="n">
-        <v>968.8289108744997</v>
+        <v>962.1303294414819</v>
       </c>
       <c r="Q16" t="n">
-        <v>1049.096252526611</v>
+        <v>1042.397671093594</v>
       </c>
       <c r="R16" t="n">
-        <v>1049.096252526611</v>
+        <v>1049.096252526609</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880737</v>
+        <v>973.9262416880711</v>
       </c>
       <c r="T16" t="n">
-        <v>878.1585453792945</v>
+        <v>878.1585453792921</v>
       </c>
       <c r="U16" t="n">
-        <v>718.095463725593</v>
+        <v>718.0954637255908</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847442</v>
+        <v>592.4900822847421</v>
       </c>
       <c r="W16" t="n">
-        <v>432.1520190128215</v>
+        <v>432.1520190128198</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798422</v>
+        <v>333.2415748798406</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.5281025013501</v>
+        <v>241.5281025013488</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>810.9578074646652</v>
       </c>
       <c r="C17" t="n">
-        <v>687.3775825010956</v>
+        <v>687.3775825010961</v>
       </c>
       <c r="D17" t="n">
-        <v>574.4941758711875</v>
+        <v>574.494175871188</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497857</v>
+        <v>434.0882152497861</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370206</v>
+        <v>268.4846024370209</v>
       </c>
       <c r="G17" t="n">
-        <v>97.18733256213007</v>
+        <v>97.18733256212997</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J17" t="n">
         <v>83.71911784006778</v>
@@ -5546,7 +5546,7 @@
         <v>1426.359574180211</v>
       </c>
       <c r="U17" t="n">
-        <v>1418.082820495152</v>
+        <v>1418.082820495151</v>
       </c>
       <c r="V17" t="n">
         <v>1332.402225128423</v>
@@ -5558,7 +5558,7 @@
         <v>1096.932395550914</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.1753555519447</v>
+        <v>952.1753555519444</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>598.2471868467258</v>
+        <v>498.4491883990975</v>
       </c>
       <c r="C18" t="n">
-        <v>423.7941575655987</v>
+        <v>323.9961591179705</v>
       </c>
       <c r="D18" t="n">
-        <v>423.7941575655987</v>
+        <v>175.0617494567192</v>
       </c>
       <c r="E18" t="n">
-        <v>264.5567025601432</v>
+        <v>175.0617494567192</v>
       </c>
       <c r="F18" t="n">
-        <v>264.5567025601432</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G18" t="n">
-        <v>127.3337218278553</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J18" t="n">
         <v>42.58127776197355</v>
@@ -5622,22 +5622,22 @@
         <v>1027.671135151053</v>
       </c>
       <c r="T18" t="n">
-        <v>1027.671135151053</v>
+        <v>831.5622127273793</v>
       </c>
       <c r="U18" t="n">
-        <v>1027.671135151053</v>
+        <v>752.686545127299</v>
       </c>
       <c r="V18" t="n">
-        <v>792.5190269193104</v>
+        <v>752.686545127299</v>
       </c>
       <c r="W18" t="n">
-        <v>783.663962167951</v>
+        <v>498.4491883990975</v>
       </c>
       <c r="X18" t="n">
-        <v>766.4625238667938</v>
+        <v>498.4491883990975</v>
       </c>
       <c r="Y18" t="n">
-        <v>766.4625238667938</v>
+        <v>498.4491883990975</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K19" t="n">
-        <v>44.74987851702737</v>
+        <v>44.74987851702735</v>
       </c>
       <c r="L19" t="n">
-        <v>95.41513034635807</v>
+        <v>95.41513034635805</v>
       </c>
       <c r="M19" t="n">
         <v>152.0928176220719</v>
@@ -5692,31 +5692,31 @@
         <v>266.8282898703962</v>
       </c>
       <c r="Q19" t="n">
-        <v>266.8282898703962</v>
+        <v>219.6462769244703</v>
       </c>
       <c r="R19" t="n">
-        <v>266.8282898703962</v>
+        <v>219.6462769244703</v>
       </c>
       <c r="S19" t="n">
-        <v>266.8282898703962</v>
+        <v>125.6241622146641</v>
       </c>
       <c r="T19" t="n">
-        <v>125.6241622146644</v>
+        <v>125.6241622146641</v>
       </c>
       <c r="U19" t="n">
-        <v>81.86426577276713</v>
+        <v>81.86426577276696</v>
       </c>
       <c r="V19" t="n">
-        <v>72.56206954372254</v>
+        <v>72.56206954372246</v>
       </c>
       <c r="W19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="X19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646652</v>
+        <v>810.9578074646654</v>
       </c>
       <c r="C20" t="n">
-        <v>687.3775825010956</v>
+        <v>687.3775825010962</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711875</v>
+        <v>574.4941758711881</v>
       </c>
       <c r="E20" t="n">
-        <v>434.0882152497857</v>
+        <v>434.0882152497862</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370206</v>
+        <v>268.4846024370211</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256213005</v>
+        <v>97.18733256212997</v>
       </c>
       <c r="H20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006778</v>
+        <v>83.71911784006755</v>
       </c>
       <c r="K20" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634137</v>
       </c>
       <c r="L20" t="n">
-        <v>419.642884983841</v>
+        <v>419.6428849838408</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965338</v>
+        <v>676.5957134965336</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893061</v>
       </c>
       <c r="O20" t="n">
         <v>1179.900872569998</v>
       </c>
       <c r="P20" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998291</v>
       </c>
       <c r="Q20" t="n">
         <v>1426.359574180211</v>
@@ -5789,7 +5789,7 @@
         <v>1332.402225128423</v>
       </c>
       <c r="W20" t="n">
-        <v>1225.015861835151</v>
+        <v>1225.015861835152</v>
       </c>
       <c r="X20" t="n">
         <v>1096.932395550914</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>734.4786994756365</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="C21" t="n">
-        <v>560.0256701945095</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="D21" t="n">
-        <v>411.0912605332583</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="E21" t="n">
-        <v>411.0912605332583</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="F21" t="n">
-        <v>264.5567025601432</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="G21" t="n">
         <v>127.3337218278553</v>
       </c>
       <c r="H21" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I21" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J21" t="n">
         <v>42.58127776197355</v>
@@ -5853,28 +5853,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R21" t="n">
-        <v>1173.080926010103</v>
+        <v>1226.61330256149</v>
       </c>
       <c r="S21" t="n">
-        <v>1173.080926010103</v>
+        <v>1081.203511702439</v>
       </c>
       <c r="T21" t="n">
-        <v>976.9720035864298</v>
+        <v>885.0945892787656</v>
       </c>
       <c r="U21" t="n">
-        <v>976.9720035864298</v>
+        <v>656.9701713233848</v>
       </c>
       <c r="V21" t="n">
-        <v>976.9720035864298</v>
+        <v>421.818063091642</v>
       </c>
       <c r="W21" t="n">
-        <v>942.3301996811693</v>
+        <v>167.5807063634404</v>
       </c>
       <c r="X21" t="n">
-        <v>734.4786994756365</v>
+        <v>167.5807063634404</v>
       </c>
       <c r="Y21" t="n">
-        <v>734.4786994756365</v>
+        <v>127.3337218278553</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="C22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="D22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="E22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="F22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="G22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J22" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="K22" t="n">
-        <v>44.74987851702737</v>
+        <v>44.74987851702735</v>
       </c>
       <c r="L22" t="n">
-        <v>95.41513034635807</v>
+        <v>95.41513034635805</v>
       </c>
       <c r="M22" t="n">
         <v>152.0928176220719</v>
@@ -5941,19 +5941,19 @@
         <v>266.8282898703962</v>
       </c>
       <c r="U22" t="n">
-        <v>223.068393428499</v>
+        <v>81.86426577276696</v>
       </c>
       <c r="V22" t="n">
-        <v>213.7661971994544</v>
+        <v>72.56206954372246</v>
       </c>
       <c r="W22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="X22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360422</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646658</v>
+        <v>810.9578074646663</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010965</v>
+        <v>687.377582501097</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711883</v>
+        <v>574.4941758711889</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497864</v>
+        <v>434.088215249787</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370212</v>
+        <v>268.484602437022</v>
       </c>
       <c r="G23" t="n">
-        <v>97.18733256213005</v>
+        <v>97.18733256212997</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006772</v>
+        <v>83.71911784006778</v>
       </c>
       <c r="K23" t="n">
         <v>217.1760266634139</v>
@@ -5996,31 +5996,31 @@
         <v>419.642884983841</v>
       </c>
       <c r="M23" t="n">
-        <v>676.5957134965336</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N23" t="n">
-        <v>942.320115789306</v>
+        <v>942.3201157893063</v>
       </c>
       <c r="O23" t="n">
         <v>1179.900872569998</v>
       </c>
       <c r="P23" t="n">
-        <v>1348.169550998291</v>
+        <v>1348.169550998292</v>
       </c>
       <c r="Q23" t="n">
         <v>1426.359574180211</v>
       </c>
       <c r="R23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S23" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="T23" t="n">
         <v>1426.359574180212</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.082820495153</v>
+        <v>1418.082820495152</v>
       </c>
       <c r="V23" t="n">
         <v>1332.402225128424</v>
@@ -6032,7 +6032,7 @@
         <v>1096.932395550915</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519454</v>
+        <v>952.1753555519456</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>187.7646464890597</v>
+        <v>336.699056150311</v>
       </c>
       <c r="C24" t="n">
-        <v>187.7646464890597</v>
+        <v>336.699056150311</v>
       </c>
       <c r="D24" t="n">
         <v>187.7646464890597</v>
       </c>
       <c r="E24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="F24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="G24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197354</v>
+        <v>42.58127776197356</v>
       </c>
       <c r="K24" t="n">
         <v>144.7567744385588</v>
       </c>
       <c r="L24" t="n">
-        <v>328.4668801148406</v>
+        <v>328.4668801148407</v>
       </c>
       <c r="M24" t="n">
         <v>562.204776565439</v>
@@ -6096,22 +6096,22 @@
         <v>1027.671135151053</v>
       </c>
       <c r="T24" t="n">
-        <v>840.3559281662866</v>
+        <v>1027.671135151053</v>
       </c>
       <c r="U24" t="n">
-        <v>612.2315102109058</v>
+        <v>799.5467171956722</v>
       </c>
       <c r="V24" t="n">
-        <v>612.2315102109058</v>
+        <v>761.1659198721569</v>
       </c>
       <c r="W24" t="n">
-        <v>603.3764454595464</v>
+        <v>752.3108551207977</v>
       </c>
       <c r="X24" t="n">
-        <v>395.5249452540136</v>
+        <v>544.4593549152648</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.7646464890597</v>
+        <v>336.699056150311</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="C25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="D25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="E25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="F25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="G25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="K25" t="n">
-        <v>44.74987851702735</v>
+        <v>44.74987851702737</v>
       </c>
       <c r="L25" t="n">
-        <v>95.41513034635805</v>
+        <v>95.41513034635807</v>
       </c>
       <c r="M25" t="n">
         <v>152.0928176220719</v>
@@ -6178,19 +6178,19 @@
         <v>266.8282898703962</v>
       </c>
       <c r="U25" t="n">
-        <v>223.068393428499</v>
+        <v>223.0683934284991</v>
       </c>
       <c r="V25" t="n">
-        <v>213.7661971994544</v>
+        <v>72.56206954372246</v>
       </c>
       <c r="W25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="X25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.7313191393361</v>
+        <v>28.52719148360423</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1619.642009607694</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C26" t="n">
-        <v>1366.982677879087</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D26" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970977004</v>
+        <v>855.5350970977016</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198969</v>
+        <v>560.8523775198983</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799682</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="I26" t="n">
-        <v>74.83913835551125</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="J26" t="n">
-        <v>411.4254655584172</v>
+        <v>231.9174312189571</v>
       </c>
       <c r="K26" t="n">
-        <v>658.8711262078527</v>
+        <v>479.3630918683925</v>
       </c>
       <c r="L26" t="n">
-        <v>861.3379845282798</v>
+        <v>851.0192063595129</v>
       </c>
       <c r="M26" t="n">
-        <v>1232.279564867062</v>
+        <v>1627.386525185016</v>
       </c>
       <c r="N26" t="n">
-        <v>1650.978358710266</v>
+        <v>1973.766462734449</v>
       </c>
       <c r="O26" t="n">
-        <v>2379.540046767165</v>
+        <v>2702.328150791348</v>
       </c>
       <c r="P26" t="n">
-        <v>2661.797477021548</v>
+        <v>2984.585581045731</v>
       </c>
       <c r="Q26" t="n">
-        <v>3064.168092782863</v>
+        <v>3062.775604227651</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820212</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769878</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913468</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463371</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331604</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273295</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224019</v>
+        <v>2163.774811224021</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>315.7822431965112</v>
+        <v>247.6032596306202</v>
       </c>
       <c r="C27" t="n">
-        <v>257.6323991271885</v>
+        <v>189.4534155612973</v>
       </c>
       <c r="D27" t="n">
-        <v>225.0011746777415</v>
+        <v>156.8221911118502</v>
       </c>
       <c r="E27" t="n">
-        <v>113.8879213181987</v>
+        <v>113.8879213181989</v>
       </c>
       <c r="F27" t="n">
-        <v>83.65654855688788</v>
+        <v>83.65654855688801</v>
       </c>
       <c r="G27" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="H27" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477356</v>
+        <v>76.79083931477359</v>
       </c>
       <c r="K27" t="n">
         <v>178.9663359913588</v>
@@ -6339,16 +6339,16 @@
         <v>1040.089288511597</v>
       </c>
       <c r="V27" t="n">
-        <v>921.2403654916591</v>
+        <v>921.240365491659</v>
       </c>
       <c r="W27" t="n">
-        <v>667.0030087634575</v>
+        <v>783.3061939752615</v>
       </c>
       <c r="X27" t="n">
-        <v>575.4546937697289</v>
+        <v>575.4546937697287</v>
       </c>
       <c r="Y27" t="n">
-        <v>367.694395004775</v>
+        <v>415.8185966506882</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147534</v>
+        <v>302.5256054147541</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986507</v>
+        <v>249.8926076986514</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981193</v>
+        <v>216.0791534981198</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275304</v>
+        <v>184.4692451275309</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414243</v>
+        <v>153.8824828414247</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475906</v>
+        <v>101.7619364475909</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280657</v>
+        <v>65.43852314280672</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="J28" t="n">
-        <v>138.5952320634119</v>
+        <v>62.73675303640427</v>
       </c>
       <c r="K28" t="n">
-        <v>260.494247778041</v>
+        <v>78.95944006982741</v>
       </c>
       <c r="L28" t="n">
-        <v>472.0094541335105</v>
+        <v>404.4633982513862</v>
       </c>
       <c r="M28" t="n">
-        <v>819.4004575356648</v>
+        <v>575.1298373531893</v>
       </c>
       <c r="N28" t="n">
-        <v>882.5880019947701</v>
+        <v>677.7722009847015</v>
       </c>
       <c r="O28" t="n">
-        <v>1075.580312752596</v>
+        <v>991.2230381038116</v>
       </c>
       <c r="P28" t="n">
-        <v>1203.066156777107</v>
+        <v>1252.365379809223</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.811817714894</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931086</v>
+        <v>1264.870485931088</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539315</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677302</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703668</v>
+        <v>895.541932470368</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762842</v>
+        <v>757.1606294762853</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511277</v>
+        <v>584.0466446511288</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649146</v>
+        <v>472.3602789649156</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331888</v>
+        <v>367.8708850331897</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.642009607695</v>
+        <v>1619.642009607696</v>
       </c>
       <c r="C29" t="n">
         <v>1366.982677879088</v>
@@ -6446,67 +6446,67 @@
         <v>1125.020164484142</v>
       </c>
       <c r="E29" t="n">
-        <v>855.535097097702</v>
+        <v>855.5350970977022</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198987</v>
+        <v>560.8523775198988</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799683</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I29" t="n">
-        <v>74.83913835551132</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J29" t="n">
-        <v>343.5173211612358</v>
+        <v>231.9174312189571</v>
       </c>
       <c r="K29" t="n">
-        <v>590.9629818106714</v>
+        <v>752.2700364550599</v>
       </c>
       <c r="L29" t="n">
-        <v>907.4185919571879</v>
+        <v>1068.725646601576</v>
       </c>
       <c r="M29" t="n">
-        <v>1534.464619125536</v>
+        <v>1325.678475114269</v>
       </c>
       <c r="N29" t="n">
-        <v>2310.831937951039</v>
+        <v>1705.391629233131</v>
       </c>
       <c r="O29" t="n">
-        <v>2662.40144655782</v>
+        <v>2433.95331729003</v>
       </c>
       <c r="P29" t="n">
-        <v>2944.658876812203</v>
+        <v>2716.210747544413</v>
       </c>
       <c r="Q29" t="n">
-        <v>3136.837651820212</v>
+        <v>3118.581363305727</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820212</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769878</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913469</v>
+        <v>3009.518416913471</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463371</v>
+        <v>2872.162556463373</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331605</v>
+        <v>2657.402854331607</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273296</v>
+        <v>2420.937384273297</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.77481122402</v>
+        <v>2163.774811224021</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460013</v>
+        <v>1889.938664460014</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>363.9064448424236</v>
+        <v>262.2498666451246</v>
       </c>
       <c r="C30" t="n">
-        <v>305.7566007731009</v>
+        <v>189.4534155612973</v>
       </c>
       <c r="D30" t="n">
-        <v>156.8221911118497</v>
+        <v>156.8221911118502</v>
       </c>
       <c r="E30" t="n">
-        <v>113.8879213181985</v>
+        <v>113.8879213181989</v>
       </c>
       <c r="F30" t="n">
-        <v>83.6565485568878</v>
+        <v>83.65654855688803</v>
       </c>
       <c r="G30" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="H30" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477356</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K30" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L30" t="n">
         <v>362.6764416676407</v>
@@ -6564,28 +6564,28 @@
         <v>1260.82286411429</v>
       </c>
       <c r="R30" t="n">
-        <v>1260.82286411429</v>
+        <v>1207.290487562904</v>
       </c>
       <c r="S30" t="n">
-        <v>1231.716258467044</v>
+        <v>1178.183881915657</v>
       </c>
       <c r="T30" t="n">
-        <v>1151.910521255174</v>
+        <v>1098.378144703788</v>
       </c>
       <c r="U30" t="n">
-        <v>923.7861032997936</v>
+        <v>986.5569119602112</v>
       </c>
       <c r="V30" t="n">
-        <v>804.9371802798552</v>
+        <v>867.7079889402727</v>
       </c>
       <c r="W30" t="n">
-        <v>598.8240251975653</v>
+        <v>613.470632212071</v>
       </c>
       <c r="X30" t="n">
-        <v>507.2757102038368</v>
+        <v>405.6191320065382</v>
       </c>
       <c r="Y30" t="n">
-        <v>415.8185966506873</v>
+        <v>314.1620184533884</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147528</v>
+        <v>302.5256054147541</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986503</v>
+        <v>249.8926076986514</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981189</v>
+        <v>216.0791534981198</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275301</v>
+        <v>184.4692451275309</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414241</v>
+        <v>153.8824828414247</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475905</v>
+        <v>101.7619364475909</v>
       </c>
       <c r="H31" t="n">
-        <v>65.4385231428065</v>
+        <v>65.43852314280672</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J31" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="K31" t="n">
-        <v>192.9481918959168</v>
+        <v>192.9481918959167</v>
       </c>
       <c r="L31" t="n">
-        <v>357.602195551337</v>
+        <v>518.4521500774755</v>
       </c>
       <c r="M31" t="n">
-        <v>528.2686346531402</v>
+        <v>865.8431534796298</v>
       </c>
       <c r="N31" t="n">
-        <v>875.5444706143521</v>
+        <v>929.0306979387351</v>
       </c>
       <c r="O31" t="n">
-        <v>1009.66947600948</v>
+        <v>1124.879535784713</v>
       </c>
       <c r="P31" t="n">
-        <v>1270.811817714892</v>
+        <v>1138.376627983134</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.811817714892</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931085</v>
+        <v>1264.870485931088</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539314</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677301</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703657</v>
+        <v>895.541932470368</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762832</v>
+        <v>757.1606294762853</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511269</v>
+        <v>584.0466446511288</v>
       </c>
       <c r="X31" t="n">
-        <v>472.360278964914</v>
+        <v>472.3602789649156</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331882</v>
+        <v>367.8708850331897</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607694</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879087</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D32" t="n">
         <v>1125.020164484141</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977009</v>
+        <v>855.5350970977013</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198976</v>
+        <v>560.8523775198979</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799681</v>
+        <v>260.4760008799683</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I32" t="n">
-        <v>74.83913835551127</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J32" t="n">
-        <v>194.6847657447897</v>
+        <v>184.5685354924015</v>
       </c>
       <c r="K32" t="n">
-        <v>387.2416278174772</v>
+        <v>432.0141961418369</v>
       </c>
       <c r="L32" t="n">
-        <v>703.6972379639936</v>
+        <v>1161.954408693299</v>
       </c>
       <c r="M32" t="n">
-        <v>1480.064556789496</v>
+        <v>1760.8536473124</v>
       </c>
       <c r="N32" t="n">
-        <v>1859.777710908358</v>
+        <v>2140.566801431262</v>
       </c>
       <c r="O32" t="n">
-        <v>2588.339398965257</v>
+        <v>2492.136310038043</v>
       </c>
       <c r="P32" t="n">
-        <v>2870.59682921964</v>
+        <v>2660.404988466337</v>
       </c>
       <c r="Q32" t="n">
-        <v>3062.775604227649</v>
+        <v>3062.775604227651</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820212</v>
+        <v>3136.837651820214</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769878</v>
+        <v>3106.22811076988</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913469</v>
+        <v>3009.518416913471</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463371</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331604</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273295</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.774811224019</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460012</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>548.3886136201201</v>
+        <v>247.6032596306202</v>
       </c>
       <c r="C33" t="n">
-        <v>490.2387695507973</v>
+        <v>189.4534155612973</v>
       </c>
       <c r="D33" t="n">
-        <v>389.4285615354584</v>
+        <v>156.8221911118502</v>
       </c>
       <c r="E33" t="n">
-        <v>230.1911065300029</v>
+        <v>113.8879213181989</v>
       </c>
       <c r="F33" t="n">
-        <v>83.65654855688786</v>
+        <v>83.65654855688803</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477356</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K33" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L33" t="n">
         <v>362.6764416676407</v>
@@ -6801,28 +6801,28 @@
         <v>1260.82286411429</v>
       </c>
       <c r="R33" t="n">
-        <v>1260.82286411429</v>
+        <v>1207.290487562904</v>
       </c>
       <c r="S33" t="n">
-        <v>1231.716258467044</v>
+        <v>1178.183881915657</v>
       </c>
       <c r="T33" t="n">
-        <v>1151.910521255174</v>
+        <v>1098.378144703788</v>
       </c>
       <c r="U33" t="n">
-        <v>1040.089288511598</v>
+        <v>986.5569119602112</v>
       </c>
       <c r="V33" t="n">
-        <v>921.2403654916593</v>
+        <v>853.0613819257683</v>
       </c>
       <c r="W33" t="n">
-        <v>783.306193975262</v>
+        <v>598.8240251975666</v>
       </c>
       <c r="X33" t="n">
-        <v>691.7578789815334</v>
+        <v>507.2757102038379</v>
       </c>
       <c r="Y33" t="n">
-        <v>600.3007654283838</v>
+        <v>415.8185966506882</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147532</v>
+        <v>302.5256054147541</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986506</v>
+        <v>249.8926076986514</v>
       </c>
       <c r="D34" t="n">
-        <v>216.0791534981192</v>
+        <v>216.0791534981198</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275304</v>
+        <v>184.4692451275309</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414243</v>
+        <v>153.8824828414247</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475906</v>
+        <v>101.7619364475909</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280656</v>
+        <v>65.43852314280672</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640424</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="J34" t="n">
-        <v>115.124744409539</v>
+        <v>62.73675303640428</v>
       </c>
       <c r="K34" t="n">
-        <v>245.3361832690515</v>
+        <v>270.5759237945796</v>
       </c>
       <c r="L34" t="n">
-        <v>456.8513896245211</v>
+        <v>435.2299274499995</v>
       </c>
       <c r="M34" t="n">
-        <v>804.2423930266755</v>
+        <v>605.8963665518027</v>
       </c>
       <c r="N34" t="n">
-        <v>1037.529477161798</v>
+        <v>953.1722025130144</v>
       </c>
       <c r="O34" t="n">
-        <v>1189.569064578685</v>
+        <v>991.2230381038116</v>
       </c>
       <c r="P34" t="n">
-        <v>1203.066156777106</v>
+        <v>1252.365379809223</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.811817714894</v>
+        <v>1270.811817714895</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931086</v>
+        <v>1264.870485931088</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539315</v>
+        <v>1176.924553539316</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677302</v>
+        <v>1068.380935677303</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703665</v>
+        <v>895.541932470368</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762839</v>
+        <v>757.1606294762853</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511275</v>
+        <v>584.0466446511288</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649145</v>
+        <v>472.3602789649156</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331886</v>
+        <v>367.8708850331897</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291583</v>
+        <v>955.8582442291593</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497063</v>
+        <v>809.0750081497069</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039154</v>
+        <v>672.9885904039159</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666307</v>
+        <v>509.379618666631</v>
       </c>
       <c r="F35" t="n">
         <v>320.5729947379828</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472089</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J35" t="n">
-        <v>201.44712559665</v>
+        <v>89.40148790926362</v>
       </c>
       <c r="K35" t="n">
-        <v>334.9040344199962</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L35" t="n">
-        <v>537.3708927404233</v>
+        <v>643.0831682248631</v>
       </c>
       <c r="M35" t="n">
-        <v>960.7142169563235</v>
+        <v>900.0359967375559</v>
       </c>
       <c r="N35" t="n">
-        <v>1226.438619249096</v>
+        <v>1165.760399030328</v>
       </c>
       <c r="O35" t="n">
-        <v>1464.019376029788</v>
+        <v>1403.34115581102</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.288054458081</v>
+        <v>1571.609834239314</v>
       </c>
       <c r="Q35" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="R35" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839059</v>
+        <v>1678.998312839061</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>355.197148807042</v>
+        <v>357.5970004951783</v>
       </c>
       <c r="C36" t="n">
-        <v>180.744119525915</v>
+        <v>183.1439712140513</v>
       </c>
       <c r="D36" t="n">
-        <v>180.744119525915</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="E36" t="n">
-        <v>180.744119525915</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="F36" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116934</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M36" t="n">
-        <v>567.8871466346347</v>
+        <v>567.887146634635</v>
       </c>
       <c r="N36" t="n">
-        <v>822.2200346112102</v>
+        <v>822.2200346112104</v>
       </c>
       <c r="O36" t="n">
         <v>1032.665143948265</v>
@@ -7035,31 +7035,31 @@
         <v>1182.232831116543</v>
       </c>
       <c r="Q36" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="R36" t="n">
-        <v>1232.295672630685</v>
+        <v>1178.763296079299</v>
       </c>
       <c r="S36" t="n">
-        <v>1232.295672630685</v>
+        <v>1033.353505220249</v>
       </c>
       <c r="T36" t="n">
-        <v>1058.292049626362</v>
+        <v>837.2445827965753</v>
       </c>
       <c r="U36" t="n">
-        <v>830.1676316709808</v>
+        <v>609.1201648411944</v>
       </c>
       <c r="V36" t="n">
-        <v>817.1948043001976</v>
+        <v>596.147337470411</v>
       </c>
       <c r="W36" t="n">
-        <v>562.957447571996</v>
+        <v>357.5970004951783</v>
       </c>
       <c r="X36" t="n">
-        <v>562.957447571996</v>
+        <v>357.5970004951783</v>
       </c>
       <c r="Y36" t="n">
-        <v>355.197148807042</v>
+        <v>357.5970004951783</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="C37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="D37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="E37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="K37" t="n">
-        <v>50.43224858622315</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L37" t="n">
         <v>101.0975004155539</v>
@@ -7114,31 +7114,31 @@
         <v>272.5106599395921</v>
       </c>
       <c r="Q37" t="n">
-        <v>225.3286469936661</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R37" t="n">
-        <v>209.3933578814238</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S37" t="n">
-        <v>209.3933578814238</v>
+        <v>209.3933578814249</v>
       </c>
       <c r="T37" t="n">
-        <v>206.7258356685661</v>
+        <v>206.7258356685671</v>
       </c>
       <c r="U37" t="n">
-        <v>139.7629281107862</v>
+        <v>139.7629281107869</v>
       </c>
       <c r="V37" t="n">
-        <v>107.2577207658588</v>
+        <v>107.2577207658594</v>
       </c>
       <c r="W37" t="n">
-        <v>40.01983158985779</v>
+        <v>40.01983158985807</v>
       </c>
       <c r="X37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291588</v>
+        <v>955.8582442291597</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497068</v>
+        <v>809.0750081497074</v>
       </c>
       <c r="D38" t="n">
-        <v>672.988590403916</v>
+        <v>672.9885904039163</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666314</v>
+        <v>509.3796186666315</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379835</v>
+        <v>320.5729947379834</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472085</v>
+        <v>126.0727137472088</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I38" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J38" t="n">
-        <v>89.40148790926358</v>
+        <v>89.40148790926362</v>
       </c>
       <c r="K38" t="n">
-        <v>440.6163099044363</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L38" t="n">
-        <v>643.0831682248634</v>
+        <v>425.3252550530369</v>
       </c>
       <c r="M38" t="n">
-        <v>960.7142169563235</v>
+        <v>682.2780835657296</v>
       </c>
       <c r="N38" t="n">
-        <v>1226.438619249096</v>
+        <v>948.0024858585022</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.019376029788</v>
+        <v>1203.435426532115</v>
       </c>
       <c r="P38" t="n">
-        <v>1632.288054458081</v>
+        <v>1371.704104960409</v>
       </c>
       <c r="Q38" t="n">
-        <v>1710.478077640001</v>
+        <v>1449.894128142328</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.478077640001</v>
+        <v>1627.725337080628</v>
       </c>
       <c r="S38" t="n">
-        <v>1710.478077640001</v>
+        <v>1701.494087242933</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839059</v>
+        <v>1678.998312839061</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356448</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947295</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.238854547173</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>153.133934585765</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="C39" t="n">
-        <v>153.133934585765</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="D39" t="n">
-        <v>153.133934585765</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="E39" t="n">
-        <v>34.20956155280002</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="F39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="G39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="H39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116934</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K39" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L39" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M39" t="n">
-        <v>567.8871466346347</v>
+        <v>567.887146634635</v>
       </c>
       <c r="N39" t="n">
-        <v>822.2200346112102</v>
+        <v>822.2200346112104</v>
       </c>
       <c r="O39" t="n">
         <v>1032.665143948265</v>
@@ -7272,31 +7272,31 @@
         <v>1182.232831116543</v>
       </c>
       <c r="Q39" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="R39" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="S39" t="n">
-        <v>1232.295672630685</v>
+        <v>1086.885881771635</v>
       </c>
       <c r="T39" t="n">
-        <v>1232.295672630685</v>
+        <v>898.2580024412404</v>
       </c>
       <c r="U39" t="n">
-        <v>1004.171254675305</v>
+        <v>670.1335844858595</v>
       </c>
       <c r="V39" t="n">
-        <v>769.0191464435618</v>
+        <v>434.9814762541167</v>
       </c>
       <c r="W39" t="n">
-        <v>736.9610705763198</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="X39" t="n">
-        <v>529.109570370787</v>
+        <v>180.7441195259151</v>
       </c>
       <c r="Y39" t="n">
-        <v>321.3492716058331</v>
+        <v>180.7441195259151</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.32686361096877</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="C40" t="n">
-        <v>97.32686361096877</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="D40" t="n">
-        <v>97.32686361096877</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="E40" t="n">
-        <v>97.32686361096877</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="K40" t="n">
-        <v>50.43224858622315</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L40" t="n">
         <v>101.0975004155539</v>
@@ -7360,22 +7360,22 @@
         <v>272.5106599395921</v>
       </c>
       <c r="T40" t="n">
-        <v>269.8431377267345</v>
+        <v>269.8431377267344</v>
       </c>
       <c r="U40" t="n">
-        <v>202.8802301689547</v>
+        <v>202.8802301689543</v>
       </c>
       <c r="V40" t="n">
-        <v>170.3750228240274</v>
+        <v>170.3750228240268</v>
       </c>
       <c r="W40" t="n">
-        <v>103.1371336480265</v>
+        <v>103.1371336480256</v>
       </c>
       <c r="X40" t="n">
-        <v>97.32686361096877</v>
+        <v>97.32686361096766</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.32686361096877</v>
+        <v>97.32686361096766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291583</v>
+        <v>955.8582442291593</v>
       </c>
       <c r="C41" t="n">
-        <v>809.075008149706</v>
+        <v>809.0750081497069</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039152</v>
+        <v>672.9885904039159</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666307</v>
+        <v>509.3796186666311</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379828</v>
+        <v>320.572994737983</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472089</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I41" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J41" t="n">
-        <v>89.40148790926358</v>
+        <v>89.40148790926362</v>
       </c>
       <c r="K41" t="n">
-        <v>440.6163099044362</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L41" t="n">
-        <v>703.7613884436307</v>
+        <v>425.3252550530369</v>
       </c>
       <c r="M41" t="n">
-        <v>960.7142169563235</v>
+        <v>682.2780835657296</v>
       </c>
       <c r="N41" t="n">
-        <v>1226.438619249096</v>
+        <v>948.0024858585022</v>
       </c>
       <c r="O41" t="n">
-        <v>1464.019376029788</v>
+        <v>1277.20417669442</v>
       </c>
       <c r="P41" t="n">
-        <v>1632.288054458081</v>
+        <v>1445.472855122713</v>
       </c>
       <c r="Q41" t="n">
-        <v>1710.478077640001</v>
+        <v>1523.662878304633</v>
       </c>
       <c r="R41" t="n">
-        <v>1710.478077640001</v>
+        <v>1701.494087242933</v>
       </c>
       <c r="S41" t="n">
-        <v>1710.478077640001</v>
+        <v>1701.494087242933</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.998312839061</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547173</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432321</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>466.7065761836336</v>
+        <v>183.1439712140513</v>
       </c>
       <c r="C42" t="n">
-        <v>292.2535469025066</v>
+        <v>183.1439712140513</v>
       </c>
       <c r="D42" t="n">
-        <v>292.2535469025066</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="E42" t="n">
-        <v>133.0160918970511</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="F42" t="n">
-        <v>133.0160918970511</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="G42" t="n">
-        <v>133.0160918970511</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116934</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L42" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M42" t="n">
-        <v>567.8871466346347</v>
+        <v>567.887146634635</v>
       </c>
       <c r="N42" t="n">
-        <v>822.2200346112102</v>
+        <v>822.2200346112104</v>
       </c>
       <c r="O42" t="n">
         <v>1032.665143948265</v>
@@ -7509,31 +7509,31 @@
         <v>1182.232831116543</v>
       </c>
       <c r="Q42" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="R42" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="S42" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="T42" t="n">
-        <v>1036.186750207012</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="U42" t="n">
-        <v>941.7682604881512</v>
+        <v>1048.509071959018</v>
       </c>
       <c r="V42" t="n">
-        <v>928.795433117368</v>
+        <v>813.3569637272749</v>
       </c>
       <c r="W42" t="n">
-        <v>674.5580763891664</v>
+        <v>559.1196069990733</v>
       </c>
       <c r="X42" t="n">
-        <v>466.7065761836336</v>
+        <v>559.1196069990733</v>
       </c>
       <c r="Y42" t="n">
-        <v>466.7065761836336</v>
+        <v>351.3593082341193</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="C43" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="D43" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="E43" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="F43" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="G43" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="H43" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I43" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622315</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L43" t="n">
         <v>101.0975004155539</v>
@@ -7597,22 +7597,22 @@
         <v>272.5106599395921</v>
       </c>
       <c r="T43" t="n">
-        <v>269.8431377267345</v>
+        <v>269.8431377267343</v>
       </c>
       <c r="U43" t="n">
-        <v>202.8802301689545</v>
+        <v>202.8802301689541</v>
       </c>
       <c r="V43" t="n">
-        <v>170.3750228240272</v>
+        <v>170.3750228240265</v>
       </c>
       <c r="W43" t="n">
-        <v>103.1371336480261</v>
+        <v>103.1371336480252</v>
       </c>
       <c r="X43" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.32686361096835</v>
+        <v>34.20956155280007</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.858244229158</v>
+        <v>955.8582442291591</v>
       </c>
       <c r="C44" t="n">
-        <v>809.075008149706</v>
+        <v>809.0750081497069</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039152</v>
+        <v>672.9885904039159</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666307</v>
+        <v>509.3796186666312</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379828</v>
+        <v>320.572994737983</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472086</v>
+        <v>126.0727137472089</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I44" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J44" t="n">
-        <v>89.40148790926358</v>
+        <v>89.40148790926362</v>
       </c>
       <c r="K44" t="n">
-        <v>222.8583967326097</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L44" t="n">
-        <v>425.3252550530368</v>
+        <v>425.3252550530369</v>
       </c>
       <c r="M44" t="n">
-        <v>682.2780835657295</v>
+        <v>682.2780835657296</v>
       </c>
       <c r="N44" t="n">
-        <v>948.002485858502</v>
+        <v>1048.607410310799</v>
       </c>
       <c r="O44" t="n">
-        <v>1185.583242639194</v>
+        <v>1286.18816709149</v>
       </c>
       <c r="P44" t="n">
-        <v>1571.609834239314</v>
+        <v>1454.456845519784</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.478077640001</v>
+        <v>1532.646868701704</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="S44" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077640001</v>
+        <v>1710.478077640003</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839058</v>
+        <v>1678.998312839061</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356447</v>
+        <v>1570.114706356449</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947293</v>
+        <v>1439.525331947294</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547172</v>
+        <v>1288.238854547174</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.27880343232</v>
+        <v>1120.278803432322</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>477.2045552636584</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="C45" t="n">
-        <v>477.2045552636584</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="D45" t="n">
-        <v>477.2045552636584</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="E45" t="n">
-        <v>317.9671002582029</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="F45" t="n">
-        <v>171.4325422850879</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="G45" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116934</v>
+        <v>48.26364783116939</v>
       </c>
       <c r="K45" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L45" t="n">
-        <v>334.1492501840364</v>
+        <v>334.1492501840365</v>
       </c>
       <c r="M45" t="n">
-        <v>567.8871466346347</v>
+        <v>567.887146634635</v>
       </c>
       <c r="N45" t="n">
-        <v>822.2200346112102</v>
+        <v>822.2200346112104</v>
       </c>
       <c r="O45" t="n">
         <v>1032.665143948265</v>
@@ -7746,31 +7746,31 @@
         <v>1182.232831116543</v>
       </c>
       <c r="Q45" t="n">
-        <v>1232.295672630685</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="R45" t="n">
-        <v>1232.295672630685</v>
+        <v>1178.763296079299</v>
       </c>
       <c r="S45" t="n">
-        <v>1232.295672630685</v>
+        <v>1033.353505220249</v>
       </c>
       <c r="T45" t="n">
-        <v>1232.295672630685</v>
+        <v>837.2445827965753</v>
       </c>
       <c r="U45" t="n">
-        <v>1120.481576588244</v>
+        <v>831.2994457021538</v>
       </c>
       <c r="V45" t="n">
-        <v>885.3294683565015</v>
+        <v>596.147337470411</v>
       </c>
       <c r="W45" t="n">
-        <v>853.2713924892594</v>
+        <v>341.9099807422094</v>
       </c>
       <c r="X45" t="n">
-        <v>645.4198922837265</v>
+        <v>134.0584805366765</v>
       </c>
       <c r="Y45" t="n">
-        <v>645.4198922837265</v>
+        <v>34.20956155280007</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="C46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="D46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="E46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="F46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="G46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="H46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="I46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155280002</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622315</v>
+        <v>50.4322485862232</v>
       </c>
       <c r="L46" t="n">
         <v>101.0975004155539</v>
@@ -7825,31 +7825,31 @@
         <v>272.5106599395921</v>
       </c>
       <c r="Q46" t="n">
-        <v>248.2978296690799</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="R46" t="n">
-        <v>248.2978296690799</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="S46" t="n">
-        <v>248.2978296690799</v>
+        <v>272.5106599395921</v>
       </c>
       <c r="T46" t="n">
-        <v>245.6303074562223</v>
+        <v>269.8431377267343</v>
       </c>
       <c r="U46" t="n">
-        <v>178.6673998984423</v>
+        <v>139.7629281107869</v>
       </c>
       <c r="V46" t="n">
-        <v>146.162192553515</v>
+        <v>107.2577207658594</v>
       </c>
       <c r="W46" t="n">
-        <v>78.92430337751388</v>
+        <v>40.01983158985807</v>
       </c>
       <c r="X46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.1140333404561</v>
+        <v>34.20956155280007</v>
       </c>
     </row>
   </sheetData>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>55.75808519656965</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>409.5209479663847</v>
       </c>
       <c r="N26" t="n">
-        <v>39.37943406499238</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>41.36638721306954</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>275.6635803905731</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>258.691360433905</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>400.6607724309499</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>40.33000427628926</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10273,22 +10273,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>97.04461596397064</v>
+        <v>44.25176811019287</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.71019281646673</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>59.69692247408213</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>409.5209479663841</v>
+        <v>230.2602608892113</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10507,13 +10507,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
@@ -10522,10 +10522,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.9455259660929</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.4845760736197</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232953</v>
+        <v>226.8947259232951</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748741</v>
+        <v>254.142054374874</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>279.0877300443236</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274268</v>
+        <v>0.1340784738178968</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>199.9639427727471</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200253</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810813</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.94012090571201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.9455259660929</v>
+        <v>1.936269161352709</v>
       </c>
       <c r="C14" t="n">
-        <v>237.4845760736199</v>
+        <v>237.4845760736197</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>204.8845976832191</v>
+        <v>254.142054374874</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>279.0877300443236</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358285</v>
+        <v>284.7244505358283</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>183.1136930274266</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810814</v>
+        <v>241.9427849810812</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>949104.2940727713</v>
+        <v>949104.2940727717</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>949104.2940727713</v>
+        <v>949104.2940727716</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1156871.96328303</v>
+        <v>1156871.963283031</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1156871.96328303</v>
+        <v>1156871.963283031</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1156871.96328303</v>
+        <v>1156871.963283031</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>327710.5354868154</v>
+        <v>327710.5354868153</v>
       </c>
       <c r="C2" t="n">
         <v>327710.5354868153</v>
@@ -26320,34 +26320,34 @@
         <v>327710.5354868153</v>
       </c>
       <c r="E2" t="n">
+        <v>281216.0871326728</v>
+      </c>
+      <c r="F2" t="n">
         <v>281216.0871326727</v>
       </c>
-      <c r="F2" t="n">
-        <v>281216.0871326728</v>
-      </c>
       <c r="G2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="H2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="I2" t="n">
         <v>328416.7079457134</v>
-      </c>
-      <c r="I2" t="n">
-        <v>328416.7079457136</v>
       </c>
       <c r="J2" t="n">
         <v>328416.7079457131</v>
       </c>
       <c r="K2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.707945713</v>
       </c>
       <c r="L2" t="n">
+        <v>328416.7079457132</v>
+      </c>
+      <c r="M2" t="n">
         <v>328416.7079457134</v>
       </c>
-      <c r="M2" t="n">
-        <v>328416.7079457133</v>
-      </c>
       <c r="N2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457134</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224332</v>
+        <v>766266.5351224333</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774898</v>
+        <v>92112.1226877489</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774894</v>
+        <v>92112.1226877489</v>
       </c>
       <c r="M3" t="n">
-        <v>83853.86775413097</v>
+        <v>83853.86775413089</v>
       </c>
       <c r="N3" t="n">
         <v>6.821210263296962e-11</v>
@@ -26424,19 +26424,19 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>161674.3217732036</v>
+        <v>161674.3217732037</v>
       </c>
       <c r="F4" t="n">
-        <v>161674.3217732036</v>
+        <v>161674.3217732037</v>
       </c>
       <c r="G4" t="n">
-        <v>228781.8774821127</v>
+        <v>228781.8774821128</v>
       </c>
       <c r="H4" t="n">
         <v>228781.8774821127</v>
       </c>
       <c r="I4" t="n">
-        <v>228781.8774821128</v>
+        <v>228781.8774821127</v>
       </c>
       <c r="J4" t="n">
         <v>233178.5095097217</v>
@@ -26445,10 +26445,10 @@
         <v>233178.5095097217</v>
       </c>
       <c r="L4" t="n">
-        <v>233178.5095097217</v>
+        <v>233178.5095097218</v>
       </c>
       <c r="M4" t="n">
-        <v>229069.7404725301</v>
+        <v>229069.74047253</v>
       </c>
       <c r="N4" t="n">
         <v>229069.7404725301</v>
@@ -26457,7 +26457,7 @@
         <v>229069.74047253</v>
       </c>
       <c r="P4" t="n">
-        <v>229069.7404725301</v>
+        <v>229069.74047253</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>47553.01820892902</v>
       </c>
       <c r="F5" t="n">
-        <v>47553.01820892902</v>
+        <v>47553.01820892903</v>
       </c>
       <c r="G5" t="n">
         <v>57232.73576172449</v>
@@ -26488,28 +26488,28 @@
         <v>57232.73576172449</v>
       </c>
       <c r="I5" t="n">
-        <v>57232.73576172448</v>
+        <v>57232.73576172449</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.9666294888</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.9666294888</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.9666294888</v>
+        <v>72488.96662948883</v>
       </c>
       <c r="M5" t="n">
         <v>59620.18961222716</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222716</v>
+        <v>59620.18961222717</v>
       </c>
       <c r="O5" t="n">
         <v>59620.18961222716</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222716</v>
+        <v>59620.18961222717</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173533.0244449158</v>
+        <v>-173537.438022784</v>
       </c>
       <c r="C6" t="n">
-        <v>-173533.0244449159</v>
+        <v>-173537.438022784</v>
       </c>
       <c r="D6" t="n">
-        <v>-173533.0244449159</v>
+        <v>-173537.438022784</v>
       </c>
       <c r="E6" t="n">
-        <v>-694277.7879718931</v>
+        <v>-694572.7918519747</v>
       </c>
       <c r="F6" t="n">
-        <v>71988.74715054024</v>
+        <v>71693.74327045845</v>
       </c>
       <c r="G6" t="n">
-        <v>-49710.02798587266</v>
+        <v>-49710.02798587277</v>
       </c>
       <c r="H6" t="n">
+        <v>42402.09470187609</v>
+      </c>
+      <c r="I6" t="n">
         <v>42402.09470187615</v>
       </c>
-      <c r="I6" t="n">
-        <v>42402.09470187633</v>
-      </c>
       <c r="J6" t="n">
-        <v>-89134.8497300075</v>
+        <v>-89134.84973000755</v>
       </c>
       <c r="K6" t="n">
-        <v>22749.23180650303</v>
+        <v>22749.23180650244</v>
       </c>
       <c r="L6" t="n">
-        <v>-69362.89088124607</v>
+        <v>-69362.89088124631</v>
       </c>
       <c r="M6" t="n">
-        <v>-44127.0898931749</v>
+        <v>-44127.0898931747</v>
       </c>
       <c r="N6" t="n">
-        <v>39726.77786095625</v>
+        <v>39726.77786095612</v>
       </c>
       <c r="O6" t="n">
-        <v>39726.77786095625</v>
+        <v>39726.77786095624</v>
       </c>
       <c r="P6" t="n">
-        <v>39726.77786095619</v>
+        <v>39726.77786095615</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G2" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="H2" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I2" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="N2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="O2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="P2" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450526</v>
+        <v>356.5898935450527</v>
       </c>
       <c r="F4" t="n">
+        <v>356.5898935450527</v>
+      </c>
+      <c r="G4" t="n">
+        <v>356.5898935450527</v>
+      </c>
+      <c r="H4" t="n">
+        <v>356.5898935450527</v>
+      </c>
+      <c r="I4" t="n">
         <v>356.5898935450529</v>
       </c>
-      <c r="G4" t="n">
-        <v>356.5898935450529</v>
-      </c>
-      <c r="H4" t="n">
-        <v>356.5898935450529</v>
-      </c>
-      <c r="I4" t="n">
-        <v>356.5898935450527</v>
-      </c>
       <c r="J4" t="n">
-        <v>784.2094129550529</v>
+        <v>784.2094129550534</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550529</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550529</v>
+        <v>784.2094129550535</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194100002</v>
+        <v>427.6195194100008</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194100002</v>
+        <v>427.6195194100008</v>
       </c>
       <c r="O4" t="n">
-        <v>427.6195194100002</v>
+        <v>427.6195194100008</v>
       </c>
       <c r="P4" t="n">
-        <v>427.6195194100002</v>
+        <v>427.6195194100009</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8173346926637</v>
+        <v>104.8173346926636</v>
       </c>
       <c r="N2" t="n">
         <v>8.526512829121202e-14</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194100002</v>
+        <v>427.6195194100005</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I11" t="n">
         <v>102.9155217242246</v>
@@ -28138,25 +28138,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C12" t="n">
-        <v>48.94965194982616</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H12" t="n">
         <v>97.81846504080859</v>
@@ -28217,25 +28217,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S12" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>127.7883156973877</v>
+        <v>48.94965194982521</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I13" t="n">
-        <v>117.8149057650245</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51542706977952</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K13" t="n">
-        <v>127.7883156973877</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>127.7883156973877</v>
+        <v>91.92573114652319</v>
       </c>
       <c r="M13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="N13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="O13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="P13" t="n">
-        <v>63.38371400910917</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="R13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973877</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>40.33000427628926</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>48.94965194982517</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H15" t="n">
         <v>97.81846504080859</v>
@@ -28457,22 +28457,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>48.94965194982692</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="I16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51542706977952</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="K16" t="n">
-        <v>60.17654794848002</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="L16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="M16" t="n">
-        <v>127.7883156973876</v>
+        <v>91.92573114652319</v>
       </c>
       <c r="N16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="R16" t="n">
-        <v>121.0220718256556</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973878</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="C17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="D17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="E17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="F17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="G17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="H17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I17" t="n">
         <v>102.9155217242246</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28618,19 +28618,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
         <v>48.12670030601736</v>
@@ -28694,19 +28694,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8431737758271</v>
+        <v>147.7562628517476</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>242.9284690570739</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>188.7435612853319</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -28764,25 +28764,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.71019281646673</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>121.0220718256556</v>
       </c>
       <c r="S19" t="n">
-        <v>202.20662642754</v>
+        <v>109.1247328648319</v>
       </c>
       <c r="T19" t="n">
-        <v>82.80624866390443</v>
+        <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V19" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W19" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="C20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="D20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="E20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="F20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="G20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="H20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I20" t="n">
         <v>102.9155217242246</v>
@@ -28855,19 +28855,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="Y20" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
     </row>
     <row r="21">
@@ -28880,19 +28880,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>52.99705278587243</v>
       </c>
       <c r="S21" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>217.3995972947118</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>165.8381810870751</v>
       </c>
     </row>
     <row r="22">
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>5.628961643756696</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.7394942895816</v>
@@ -29013,13 +29013,13 @@
         <v>222.598335043079</v>
       </c>
       <c r="U22" t="n">
-        <v>242.9284690570739</v>
+        <v>103.1363826778991</v>
       </c>
       <c r="V22" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W22" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="C23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="D23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="E23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="F23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="G23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="H23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="I23" t="n">
         <v>102.9155217242246</v>
@@ -29089,22 +29089,22 @@
         <v>145.4435989995167</v>
       </c>
       <c r="T23" t="n">
-        <v>210.8827502775327</v>
+        <v>210.882750277531</v>
       </c>
       <c r="U23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="W23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29168,16 +29168,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>8.705778284518146</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>194.8035977991452</v>
       </c>
       <c r="W24" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>8.823386639037778</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29250,13 +29250,13 @@
         <v>222.598335043079</v>
       </c>
       <c r="U25" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V25" t="n">
-        <v>242.9284690570739</v>
+        <v>103.1363826778991</v>
       </c>
       <c r="W25" t="n">
-        <v>242.9284690570739</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I26" t="n">
-        <v>115.1401533596862</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N26" t="n">
-        <v>115.1401533596862</v>
+        <v>81.47023763299099</v>
       </c>
       <c r="O26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>48.01717939052779</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="27">
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E27" t="n">
-        <v>47.64295962945357</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H27" t="n">
         <v>97.81846504080859</v>
@@ -29402,25 +29402,25 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V27" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X27" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>47.64295962945425</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J28" t="n">
-        <v>115.1401533596862</v>
+        <v>4.879185747056184</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>39.85335269940089</v>
       </c>
       <c r="O28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I29" t="n">
-        <v>115.1401533596863</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J29" t="n">
-        <v>46.54606811000798</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="K29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M29" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>58.77069974546803</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="30">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C30" t="n">
-        <v>115.1401533596863</v>
+        <v>100.6400124153268</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H30" t="n">
         <v>97.81846504080859</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W30" t="n">
-        <v>47.64295962945269</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J31" t="n">
         <v>4.879185747056184</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N31" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P31" t="n">
-        <v>115.1401533596863</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I32" t="n">
-        <v>115.1401533596862</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J32" t="n">
-        <v>65.30676872001504</v>
+        <v>67.31298595912492</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="L32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="P32" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="R32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D33" t="n">
-        <v>47.64295962945319</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H33" t="n">
         <v>97.81846504080859</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V33" t="n">
-        <v>115.1401533596862</v>
+        <v>100.6400124153268</v>
       </c>
       <c r="W33" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="J34" t="n">
-        <v>57.79634875022261</v>
+        <v>4.879185747056184</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1401533596862</v>
+        <v>86.8082374177234</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="M34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="O34" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.1401533596862</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596862</v>
+        <v>115.1401533596861</v>
       </c>
     </row>
     <row r="35">
@@ -29983,40 +29983,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="C35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="D35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="E35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="F35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="G35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="H35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="I35" t="n">
         <v>102.9155217242246</v>
       </c>
       <c r="J35" t="n">
-        <v>113.1774118054409</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="M35" t="n">
-        <v>168.0712077810177</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>61.29113153411103</v>
       </c>
       <c r="R35" t="n">
         <v>40.33000427628926</v>
@@ -30040,19 +30040,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="V35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="W35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="X35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
     </row>
     <row r="36">
@@ -30068,13 +30068,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>135.850750924965</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>21.88424642515633</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>15.53014955543929</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30186,28 +30186,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R37" t="n">
-        <v>105.2461356045357</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S37" t="n">
-        <v>202.20662642754</v>
+        <v>139.7204973899545</v>
       </c>
       <c r="T37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="U37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="V37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="W37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="X37" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="C38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="D38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="E38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="F38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="G38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="H38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="I38" t="n">
         <v>102.9155217242246</v>
@@ -30247,19 +30247,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>61.2911315341085</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>18.03250898274857</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.33000427628926</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="S38" t="n">
-        <v>145.4435989995167</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="T38" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -30308,10 +30308,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>39.9099511527656</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.850750924965</v>
@@ -30350,10 +30350,10 @@
         <v>52.99705278587243</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1478331994369</v>
+        <v>7.406232662345985</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30362,13 +30362,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>117.3458511443514</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30390,7 +30390,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>82.93491898534418</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.7394942895816</v>
@@ -30432,19 +30432,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="U40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="V40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="W40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="X40" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523498</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="C41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="D41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="E41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="F41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="G41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="H41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="I41" t="n">
         <v>102.9155217242246</v>
@@ -30484,10 +30484,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>61.2911315341085</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30496,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>92.54639803558163</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.33000427628926</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="S41" t="n">
         <v>145.4435989995167</v>
       </c>
       <c r="T41" t="n">
-        <v>210.882750277531</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="U41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="V41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="W41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="X41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
     </row>
     <row r="42">
@@ -30536,16 +30536,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -30554,7 +30554,7 @@
         <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I42" t="n">
         <v>48.12670030601736</v>
@@ -30590,22 +30590,22 @@
         <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>132.3688689541551</v>
+        <v>43.89443911087565</v>
       </c>
       <c r="V42" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30636,10 +30636,10 @@
         <v>151.1003325314225</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84420379721743</v>
+        <v>117.8149057650245</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>38.51542706977952</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30669,19 +30669,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="U43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="V43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="W43" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="X43" t="n">
-        <v>219.95748805235</v>
+        <v>157.4713590147643</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="C44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="D44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="E44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="F44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="G44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="H44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="I44" t="n">
         <v>102.9155217242246</v>
@@ -30730,19 +30730,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>101.6211358104006</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>61.29113153410873</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.33000427628926</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="S44" t="n">
         <v>145.4435989995167</v>
@@ -30751,19 +30751,19 @@
         <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="V44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="W44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="X44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -30782,13 +30782,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
         <v>97.81846504080859</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>52.99705278587243</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1478331994369</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>115.1472186938103</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>219.95748805235</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>106.8322659832667</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>117.8149057650245</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>38.51542706977952</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.73949084865965</v>
+        <v>46.71019281646673</v>
       </c>
       <c r="R46" t="n">
         <v>121.0220718256556</v>
@@ -30906,19 +30906,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="U46" t="n">
-        <v>219.95748805235</v>
+        <v>157.4713590147643</v>
       </c>
       <c r="V46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="W46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="X46" t="n">
-        <v>219.95748805235</v>
+        <v>219.9574880523497</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -32470,7 +32470,7 @@
         <v>107.5603678461813</v>
       </c>
       <c r="J20" t="n">
-        <v>236.7953250887707</v>
+        <v>236.7953250887705</v>
       </c>
       <c r="K20" t="n">
         <v>354.8948094524009</v>
@@ -35562,34 +35562,34 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.973409932363289</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>89.27288862760831</v>
       </c>
       <c r="K13" t="n">
-        <v>144.174868256401</v>
+        <v>16.38655255901327</v>
       </c>
       <c r="L13" t="n">
-        <v>178.9653377472167</v>
+        <v>143.1027531963522</v>
       </c>
       <c r="M13" t="n">
-        <v>185.0385048647755</v>
+        <v>185.0385048647756</v>
       </c>
       <c r="N13" t="n">
-        <v>191.6141181813325</v>
+        <v>191.6141181813326</v>
       </c>
       <c r="O13" t="n">
-        <v>166.2235031628394</v>
+        <v>166.2235031628396</v>
       </c>
       <c r="P13" t="n">
-        <v>77.01714047216147</v>
+        <v>141.4217421604401</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.07812288092099</v>
+        <v>81.0781228809211</v>
       </c>
       <c r="R13" t="n">
-        <v>6.766243871732129</v>
+        <v>6.766243871732243</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35799,34 +35799,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.973409932363104</v>
+        <v>9.973409932363289</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>89.27288862760831</v>
       </c>
       <c r="K16" t="n">
-        <v>76.56310050749329</v>
+        <v>144.1748682564011</v>
       </c>
       <c r="L16" t="n">
-        <v>178.9653377472166</v>
+        <v>178.9653377472168</v>
       </c>
       <c r="M16" t="n">
-        <v>185.0385048647754</v>
+        <v>149.1759203139109</v>
       </c>
       <c r="N16" t="n">
-        <v>191.6141181813325</v>
+        <v>191.6141181813326</v>
       </c>
       <c r="O16" t="n">
-        <v>166.2235031628394</v>
+        <v>38.43518746545172</v>
       </c>
       <c r="P16" t="n">
-        <v>141.4217421604399</v>
+        <v>141.4217421604401</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.07812288092092</v>
+        <v>81.0781228809211</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.766243871732243</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>239.9805624047391</v>
       </c>
       <c r="P17" t="n">
-        <v>169.9683620487818</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q17" t="n">
         <v>78.97982139587825</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.7494205620844</v>
+        <v>55.74942056208418</v>
       </c>
       <c r="K20" t="n">
         <v>134.8049584074204</v>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.607692654649116e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.22463163546163</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>339.9861890938444</v>
+        <v>170.8895739217705</v>
       </c>
       <c r="K26" t="n">
-        <v>249.9451117671066</v>
+        <v>249.9451117671065</v>
       </c>
       <c r="L26" t="n">
-        <v>204.5119781014415</v>
+        <v>375.4102166576973</v>
       </c>
       <c r="M26" t="n">
-        <v>374.6884649886688</v>
+        <v>784.2094129550534</v>
       </c>
       <c r="N26" t="n">
-        <v>422.9280745890953</v>
+        <v>349.8787247974077</v>
       </c>
       <c r="O26" t="n">
-        <v>735.9208970271707</v>
+        <v>735.9208970271706</v>
       </c>
       <c r="P26" t="n">
-        <v>285.1085154084678</v>
+        <v>285.1085154084677</v>
       </c>
       <c r="Q26" t="n">
-        <v>406.4349654154692</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R26" t="n">
-        <v>73.40359498722097</v>
+        <v>74.81014908339687</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>76.6247262899067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>123.1303189036658</v>
+        <v>16.38655255901327</v>
       </c>
       <c r="L28" t="n">
-        <v>213.6517235913834</v>
+        <v>328.7918769510695</v>
       </c>
       <c r="M28" t="n">
-        <v>350.9000034365196</v>
+        <v>172.3903425270739</v>
       </c>
       <c r="N28" t="n">
-        <v>63.82580248394481</v>
+        <v>103.6791551833457</v>
       </c>
       <c r="O28" t="n">
-        <v>194.9417280382075</v>
+        <v>316.6170071910203</v>
       </c>
       <c r="P28" t="n">
-        <v>128.7735798227385</v>
+        <v>263.7801431367795</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.42996054321949</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.22463163546171</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3921038441662</v>
+        <v>170.8895739217705</v>
       </c>
       <c r="K29" t="n">
-        <v>249.9451117671067</v>
+        <v>525.6086921576796</v>
       </c>
       <c r="L29" t="n">
-        <v>319.6521314611278</v>
+        <v>319.6521314611276</v>
       </c>
       <c r="M29" t="n">
-        <v>633.3798254225738</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N29" t="n">
-        <v>784.2094129550529</v>
+        <v>383.5486405241028</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1207157644254</v>
+        <v>735.9208970271706</v>
       </c>
       <c r="P29" t="n">
-        <v>285.1085154084678</v>
+        <v>285.1085154084677</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.1199747555646</v>
+        <v>406.434965415469</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>18.44069546917876</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>131.5267059186996</v>
+        <v>131.5267059186994</v>
       </c>
       <c r="L31" t="n">
-        <v>166.3171754095153</v>
+        <v>328.7918769510695</v>
       </c>
       <c r="M31" t="n">
-        <v>172.390342527074</v>
+        <v>350.9000034365195</v>
       </c>
       <c r="N31" t="n">
-        <v>350.7836726880929</v>
+        <v>63.82580248394481</v>
       </c>
       <c r="O31" t="n">
-        <v>135.4798034294224</v>
+        <v>197.8271089353307</v>
       </c>
       <c r="P31" t="n">
-        <v>263.7801431367797</v>
+        <v>13.6334264630523</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>133.7729189209709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.22463163546165</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>121.0561892820994</v>
+        <v>123.0624065212093</v>
       </c>
       <c r="K32" t="n">
-        <v>194.5018808815025</v>
+        <v>249.9451117671065</v>
       </c>
       <c r="L32" t="n">
-        <v>319.6521314611277</v>
+        <v>737.313346011578</v>
       </c>
       <c r="M32" t="n">
-        <v>784.2094129550529</v>
+        <v>604.94872587788</v>
       </c>
       <c r="N32" t="n">
-        <v>383.548640524103</v>
+        <v>383.5486405241028</v>
       </c>
       <c r="O32" t="n">
-        <v>735.9208970271707</v>
+        <v>355.1207157644252</v>
       </c>
       <c r="P32" t="n">
-        <v>285.1085154084678</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1199747555645</v>
+        <v>406.434965415469</v>
       </c>
       <c r="R32" t="n">
-        <v>74.81014908339698</v>
+        <v>74.81014908339687</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52.91716300316643</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>131.5267059186995</v>
+        <v>209.9385563213892</v>
       </c>
       <c r="L34" t="n">
-        <v>213.6517235913834</v>
+        <v>166.3171754095151</v>
       </c>
       <c r="M34" t="n">
-        <v>350.9000034365196</v>
+        <v>172.3903425270739</v>
       </c>
       <c r="N34" t="n">
-        <v>235.6435193284066</v>
+        <v>350.7836726880927</v>
       </c>
       <c r="O34" t="n">
-        <v>153.575340825138</v>
+        <v>38.43518746545172</v>
       </c>
       <c r="P34" t="n">
-        <v>13.6334264630523</v>
+        <v>263.7801431367795</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.42996054321951</v>
+        <v>18.63276556128473</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>168.9268323675253</v>
+        <v>55.7494205620844</v>
       </c>
       <c r="K35" t="n">
         <v>134.8049584074204</v>
       </c>
       <c r="L35" t="n">
-        <v>204.5119781014415</v>
+        <v>424.4694661537912</v>
       </c>
       <c r="M35" t="n">
-        <v>427.6195194100002</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N35" t="n">
         <v>268.4084871644167</v>
@@ -37324,7 +37324,7 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.97982139587825</v>
+        <v>140.2709529299893</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>55.7494205620844</v>
       </c>
       <c r="K38" t="n">
-        <v>354.7624464597704</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L38" t="n">
         <v>204.5119781014415</v>
       </c>
       <c r="M38" t="n">
-        <v>320.8394431630911</v>
+        <v>259.5483116289826</v>
       </c>
       <c r="N38" t="n">
         <v>268.4084871644167</v>
       </c>
       <c r="O38" t="n">
-        <v>239.9805624047391</v>
+        <v>258.0130713874876</v>
       </c>
       <c r="P38" t="n">
         <v>169.9683620487816</v>
@@ -37564,13 +37564,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>179.6274837760606</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>74.51388905283315</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.074737774818773</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>55.7494205620844</v>
       </c>
       <c r="K41" t="n">
-        <v>354.7624464597703</v>
+        <v>134.8049584074204</v>
       </c>
       <c r="L41" t="n">
-        <v>265.80310963555</v>
+        <v>204.5119781014415</v>
       </c>
       <c r="M41" t="n">
         <v>259.5483116289826</v>
@@ -37792,7 +37792,7 @@
         <v>268.4084871644167</v>
       </c>
       <c r="O41" t="n">
-        <v>239.9805624047391</v>
+        <v>332.5269604403207</v>
       </c>
       <c r="P41" t="n">
         <v>169.9683620487816</v>
@@ -37801,13 +37801,13 @@
         <v>78.97982139587825</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>179.6274837760605</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.074737774818688</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -38026,19 +38026,19 @@
         <v>259.5483116289826</v>
       </c>
       <c r="N44" t="n">
-        <v>268.4084871644167</v>
+        <v>370.0296229748173</v>
       </c>
       <c r="O44" t="n">
         <v>239.9805624047391</v>
       </c>
       <c r="P44" t="n">
-        <v>389.9258501011315</v>
+        <v>169.9683620487816</v>
       </c>
       <c r="Q44" t="n">
-        <v>140.270952929987</v>
+        <v>78.97982139587825</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>179.6274837760605</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
